--- a/data/dados-catequese.xlsx
+++ b/data/dados-catequese.xlsx
@@ -1,41 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.furtado\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55BA271-4EC5-4362-A922-C89AB401A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{335E9168-7A4A-4702-B284-F29F3638548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="tabelas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="246">
   <si>
     <t>nome</t>
   </si>
@@ -430,9 +419,6 @@
     <t>Pré Catequese</t>
   </si>
   <si>
-    <t>Joaquim Sapalo|Leandro Morais| Francilia Quissola</t>
-  </si>
-  <si>
     <t>Sala 1</t>
   </si>
   <si>
@@ -568,54 +554,12 @@
     <t>12/04/2016</t>
   </si>
   <si>
-    <t>16/08/2012</t>
-  </si>
-  <si>
-    <t>26/02/2016</t>
-  </si>
-  <si>
-    <t>22/05/2012</t>
-  </si>
-  <si>
-    <t>11/03/2011</t>
-  </si>
-  <si>
     <t>14/10/2025</t>
   </si>
   <si>
-    <t>06/04/2010</t>
-  </si>
-  <si>
-    <t>03/06/2009</t>
-  </si>
-  <si>
-    <t>17/05/2015</t>
-  </si>
-  <si>
-    <t>12/09/2010</t>
-  </si>
-  <si>
-    <t>07/06/2010</t>
-  </si>
-  <si>
-    <t>22/05/2013</t>
-  </si>
-  <si>
     <t>23/12/2009</t>
   </si>
   <si>
-    <t>05/09/2015</t>
-  </si>
-  <si>
-    <t>17/09/2013</t>
-  </si>
-  <si>
-    <t>25/05/2017</t>
-  </si>
-  <si>
-    <t>06/05/2010</t>
-  </si>
-  <si>
     <t>28/05/2016</t>
   </si>
   <si>
@@ -806,13 +750,25 @@
   </si>
   <si>
     <t>13/03/2013</t>
+  </si>
+  <si>
+    <t>Esperança Ngueve Zito</t>
+  </si>
+  <si>
+    <t>Amado Catumbela Ngueve Zito</t>
+  </si>
+  <si>
+    <t>JOAQUIM SAPALO|Leandro Morais| Francilia Quissola</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,6 +780,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -918,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -951,9 +913,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,9 +965,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1037,9 +1005,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,26 +1040,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,26 +1075,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1317,31 +1251,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1363,12 +1297,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>155</v>
+      <c r="B2" t="s">
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1377,28 +1311,28 @@
         <v>124</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>TEXT(B2,"DD/MM/AAAA")</f>
         <v>22/06/2013</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>156</v>
+      <c r="B3" t="s">
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1407,16 +1341,16 @@
         <v>124</v>
       </c>
       <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="12" t="str">
         <f t="shared" ref="I3:I66" si="0">TEXT(B3,"DD/MM/AAAA")</f>
@@ -1424,12 +1358,12 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>157</v>
+      <c r="B4" t="s">
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1441,13 +1375,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
         <v>144</v>
       </c>
-      <c r="G4" t="s">
-        <v>145</v>
-      </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1455,12 +1389,12 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>158</v>
+      <c r="B5" t="s">
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1475,10 +1409,10 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1486,12 +1420,12 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>159</v>
+      <c r="B6" t="s">
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -1506,10 +1440,10 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1517,12 +1451,12 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>160</v>
+      <c r="B7" t="s">
+        <v>159</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1534,26 +1468,26 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
         <v>150</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>10/10/2015</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>10/10/2015</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>161</v>
+      <c r="B8" t="s">
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1565,13 +1499,13 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
         <v>144</v>
       </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1579,12 +1513,12 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>162</v>
+      <c r="B9" t="s">
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -1596,13 +1530,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
         <v>144</v>
       </c>
-      <c r="G9" t="s">
-        <v>145</v>
-      </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1610,12 +1544,12 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -1630,10 +1564,10 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1641,12 +1575,12 @@
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>164</v>
+      <c r="B11" t="s">
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1655,16 +1589,16 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="F11" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1672,12 +1606,12 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>165</v>
+      <c r="B12" t="s">
+        <v>164</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1686,16 +1620,16 @@
         <v>128</v>
       </c>
       <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
         <v>142</v>
       </c>
-      <c r="F12" t="s">
-        <v>143</v>
-      </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1703,12 +1637,12 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>166</v>
+      <c r="B13" t="s">
+        <v>165</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1723,10 +1657,10 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1734,12 +1668,12 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>167</v>
+      <c r="B14" t="s">
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1751,13 +1685,13 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
         <v>144</v>
       </c>
-      <c r="G14" t="s">
-        <v>145</v>
-      </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1765,12 +1699,12 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>168</v>
+      <c r="B15" t="s">
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1779,16 +1713,16 @@
         <v>128</v>
       </c>
       <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1796,12 +1730,12 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>169</v>
+      <c r="B16" t="s">
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1816,10 +1750,10 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1827,12 +1761,12 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>170</v>
+      <c r="B17" t="s">
+        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -1844,13 +1778,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1858,12 +1792,12 @@
       </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>171</v>
+      <c r="B18" t="s">
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -1878,10 +1812,10 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1889,12 +1823,12 @@
       </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>172</v>
+      <c r="B19" t="s">
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1903,16 +1837,16 @@
         <v>124</v>
       </c>
       <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
         <v>138</v>
       </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1920,12 +1854,12 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>173</v>
+      <c r="B20" t="s">
+        <v>172</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1940,10 +1874,10 @@
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1951,12 +1885,12 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>174</v>
+      <c r="B21" t="s">
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1971,10 +1905,10 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I21" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1982,12 +1916,12 @@
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>175</v>
+      <c r="B22" t="s">
+        <v>174</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2002,10 +1936,10 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2013,12 +1947,12 @@
       </c>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>176</v>
+      <c r="B23" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2027,16 +1961,16 @@
         <v>130</v>
       </c>
       <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
         <v>132</v>
       </c>
-      <c r="F23" t="s">
-        <v>133</v>
-      </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2044,12 +1978,12 @@
       </c>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>177</v>
+      <c r="B24" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -2064,23 +1998,23 @@
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>16/08/2012</v>
+        <v>30/09/2017</v>
       </c>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>178</v>
+      <c r="B25" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2089,29 +2023,29 @@
         <v>124</v>
       </c>
       <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" t="s">
         <v>138</v>
       </c>
-      <c r="F25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" t="s">
-        <v>139</v>
-      </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>26/02/2016</v>
+        <v>06/08/2018</v>
       </c>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>179</v>
+      <c r="B26" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -2120,29 +2054,29 @@
         <v>128</v>
       </c>
       <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
         <v>142</v>
       </c>
-      <c r="F26" t="s">
-        <v>143</v>
-      </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>22/05/2012</v>
+        <v>06/06/2015</v>
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>180</v>
+      <c r="B27" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -2157,23 +2091,23 @@
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>11/03/2011</v>
+        <v>24/11/2017</v>
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>181</v>
+      <c r="B28" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -2185,26 +2119,26 @@
         <v>18</v>
       </c>
       <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
         <v>144</v>
       </c>
-      <c r="G28" t="s">
-        <v>145</v>
-      </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>14/10/2025</v>
+        <v>28/07/2016</v>
       </c>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>182</v>
+      <c r="B29" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -2216,26 +2150,26 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
         <v>144</v>
       </c>
-      <c r="G29" t="s">
-        <v>145</v>
-      </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>06/04/2010</v>
+        <v>26/09/2016</v>
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>183</v>
+      <c r="B30" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2250,23 +2184,23 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I30" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>03/06/2009</v>
+        <v>29/03/2018</v>
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>184</v>
+      <c r="B31" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -2275,29 +2209,29 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s">
         <v>142</v>
       </c>
-      <c r="F31" t="s">
-        <v>143</v>
-      </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I31" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>17/05/2015</v>
+        <v>04/12/2013</v>
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>185</v>
+      <c r="B32" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -2309,26 +2243,26 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" t="s">
         <v>144</v>
       </c>
-      <c r="G32" t="s">
-        <v>145</v>
-      </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I32" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>12/09/2010</v>
+        <v>20/12/2015</v>
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>186</v>
+      <c r="B33" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -2343,23 +2277,23 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>07/06/2010</v>
+        <v>10/04/2016</v>
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>187</v>
+      <c r="B34" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -2368,29 +2302,29 @@
         <v>128</v>
       </c>
       <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
         <v>142</v>
       </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I34" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>22/05/2013</v>
+        <v>06/05/2015</v>
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>188</v>
+      <c r="B35" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -2399,29 +2333,29 @@
         <v>128</v>
       </c>
       <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
         <v>142</v>
       </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I35" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>23/12/2009</v>
+        <v>05/11/2016</v>
       </c>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>189</v>
+      <c r="B36" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -2436,23 +2370,23 @@
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I36" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>05/09/2015</v>
+        <v>29/03/2018</v>
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>190</v>
+      <c r="B37" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -2467,23 +2401,23 @@
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I37" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>17/09/2013</v>
+        <v>22/11/2017</v>
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>191</v>
+      <c r="B38" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -2498,23 +2432,23 @@
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I38" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>25/05/2017</v>
+        <v>06/10/2018</v>
       </c>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>192</v>
+      <c r="B39" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -2529,23 +2463,23 @@
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I39" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>06/05/2010</v>
+        <v>02/10/2012</v>
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>193</v>
+      <c r="B40" t="s">
+        <v>178</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -2554,16 +2488,16 @@
         <v>128</v>
       </c>
       <c r="E40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" t="s">
         <v>142</v>
       </c>
-      <c r="F40" t="s">
-        <v>143</v>
-      </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I40" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2571,12 +2505,12 @@
       </c>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>194</v>
+      <c r="B41" t="s">
+        <v>179</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -2588,13 +2522,13 @@
         <v>22</v>
       </c>
       <c r="F41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="s">
         <v>150</v>
       </c>
-      <c r="G41" t="s">
-        <v>151</v>
-      </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I41" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2602,12 +2536,12 @@
       </c>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>195</v>
+      <c r="B42" t="s">
+        <v>180</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -2622,10 +2556,10 @@
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2633,12 +2567,12 @@
       </c>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>196</v>
+      <c r="B43" t="s">
+        <v>181</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -2650,13 +2584,13 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
         <v>144</v>
       </c>
-      <c r="G43" t="s">
-        <v>145</v>
-      </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I43" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2664,12 +2598,12 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>197</v>
+      <c r="B44" t="s">
+        <v>182</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
@@ -2678,16 +2612,16 @@
         <v>128</v>
       </c>
       <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" t="s">
         <v>142</v>
       </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I44" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2695,12 +2629,12 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>198</v>
+      <c r="B45" t="s">
+        <v>183</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -2709,16 +2643,16 @@
         <v>124</v>
       </c>
       <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" t="s">
         <v>138</v>
       </c>
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" t="s">
-        <v>139</v>
-      </c>
       <c r="H45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I45" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2726,12 +2660,12 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>199</v>
+      <c r="B46" t="s">
+        <v>184</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -2743,13 +2677,13 @@
         <v>18</v>
       </c>
       <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" t="s">
         <v>144</v>
       </c>
-      <c r="G46" t="s">
-        <v>145</v>
-      </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I46" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2757,12 +2691,12 @@
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>200</v>
+      <c r="B47" t="s">
+        <v>185</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -2774,13 +2708,13 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" t="s">
         <v>144</v>
       </c>
-      <c r="G47" t="s">
-        <v>145</v>
-      </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I47" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2788,12 +2722,12 @@
       </c>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>188</v>
+      <c r="B48" t="s">
+        <v>177</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -2802,16 +2736,16 @@
         <v>128</v>
       </c>
       <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
         <v>142</v>
       </c>
-      <c r="F48" t="s">
-        <v>143</v>
-      </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I48" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2819,12 +2753,12 @@
       </c>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>201</v>
+      <c r="B49" t="s">
+        <v>186</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
@@ -2836,13 +2770,13 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
         <v>144</v>
       </c>
-      <c r="G49" t="s">
-        <v>145</v>
-      </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I49" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2850,12 +2784,12 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>202</v>
+      <c r="B50" t="s">
+        <v>187</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -2864,16 +2798,16 @@
         <v>130</v>
       </c>
       <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
         <v>132</v>
       </c>
-      <c r="F50" t="s">
-        <v>133</v>
-      </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2881,12 +2815,12 @@
       </c>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>203</v>
+      <c r="B51" t="s">
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
@@ -2898,13 +2832,13 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
         <v>144</v>
       </c>
-      <c r="G51" t="s">
-        <v>145</v>
-      </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2912,12 +2846,12 @@
       </c>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>204</v>
+      <c r="B52" t="s">
+        <v>189</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -2926,16 +2860,16 @@
         <v>128</v>
       </c>
       <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
         <v>142</v>
       </c>
-      <c r="F52" t="s">
-        <v>143</v>
-      </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2943,12 +2877,12 @@
       </c>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>205</v>
+      <c r="B53" t="s">
+        <v>190</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -2963,10 +2897,10 @@
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2974,12 +2908,12 @@
       </c>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>206</v>
+      <c r="B54" t="s">
+        <v>191</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -2994,10 +2928,10 @@
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I54" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3005,12 +2939,12 @@
       </c>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>181</v>
+      <c r="B55" t="s">
+        <v>176</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -3019,16 +2953,16 @@
         <v>124</v>
       </c>
       <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" t="s">
         <v>138</v>
       </c>
-      <c r="F55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" t="s">
-        <v>139</v>
-      </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I55" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3036,12 +2970,12 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>181</v>
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -3050,16 +2984,16 @@
         <v>124</v>
       </c>
       <c r="E56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" t="s">
         <v>138</v>
       </c>
-      <c r="F56" t="s">
-        <v>133</v>
-      </c>
-      <c r="G56" t="s">
-        <v>139</v>
-      </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I56" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3067,12 +3001,12 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>207</v>
+      <c r="B57" t="s">
+        <v>192</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -3087,10 +3021,10 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I57" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3098,12 +3032,12 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>208</v>
+      <c r="B58" t="s">
+        <v>193</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -3118,10 +3052,10 @@
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I58" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3129,12 +3063,12 @@
       </c>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>209</v>
+      <c r="B59" t="s">
+        <v>194</v>
       </c>
       <c r="C59" t="s">
         <v>23</v>
@@ -3149,10 +3083,10 @@
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I59" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3160,12 +3094,12 @@
       </c>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>210</v>
+      <c r="B60" t="s">
+        <v>195</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -3180,10 +3114,10 @@
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I60" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3191,12 +3125,12 @@
       </c>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>211</v>
+      <c r="B61" t="s">
+        <v>196</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -3211,10 +3145,10 @@
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I61" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3222,12 +3156,12 @@
       </c>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>212</v>
+      <c r="B62" t="s">
+        <v>197</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -3242,10 +3176,10 @@
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I62" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3253,12 +3187,12 @@
       </c>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>213</v>
+      <c r="B63" t="s">
+        <v>198</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -3273,10 +3207,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I63" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3284,12 +3218,12 @@
       </c>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>214</v>
+      <c r="B64" t="s">
+        <v>199</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -3301,13 +3235,13 @@
         <v>18</v>
       </c>
       <c r="F64" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" t="s">
         <v>144</v>
       </c>
-      <c r="G64" t="s">
-        <v>145</v>
-      </c>
       <c r="H64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I64" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3315,12 +3249,12 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>215</v>
+      <c r="B65" t="s">
+        <v>200</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -3335,10 +3269,10 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I65" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3346,12 +3280,12 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>216</v>
+      <c r="B66" t="s">
+        <v>201</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -3366,10 +3300,10 @@
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I66" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3377,12 +3311,12 @@
       </c>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>217</v>
+      <c r="B67" t="s">
+        <v>202</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -3397,10 +3331,10 @@
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I67" s="12" t="str">
         <f t="shared" ref="I67:I109" si="1">TEXT(B67,"DD/MM/AAAA")</f>
@@ -3408,12 +3342,12 @@
       </c>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>218</v>
+      <c r="B68" t="s">
+        <v>203</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
@@ -3428,10 +3362,10 @@
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I68" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3439,7 +3373,7 @@
       </c>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>86</v>
       </c>
@@ -3456,10 +3390,10 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I69" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3467,12 +3401,12 @@
       </c>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>219</v>
+      <c r="B70" t="s">
+        <v>204</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
@@ -3481,16 +3415,16 @@
         <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I70" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3498,12 +3432,12 @@
       </c>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>220</v>
+      <c r="B71" t="s">
+        <v>205</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
@@ -3512,16 +3446,16 @@
         <v>130</v>
       </c>
       <c r="E71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" t="s">
         <v>132</v>
       </c>
-      <c r="F71" t="s">
-        <v>133</v>
-      </c>
       <c r="G71" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I71" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3529,12 +3463,12 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>221</v>
+      <c r="B72" t="s">
+        <v>206</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
@@ -3543,16 +3477,16 @@
         <v>130</v>
       </c>
       <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" t="s">
         <v>148</v>
       </c>
-      <c r="F72" t="s">
-        <v>149</v>
-      </c>
       <c r="G72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I72" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3560,12 +3494,12 @@
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>222</v>
+      <c r="B73" t="s">
+        <v>207</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
@@ -3574,16 +3508,16 @@
         <v>130</v>
       </c>
       <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" t="s">
         <v>148</v>
       </c>
-      <c r="F73" t="s">
-        <v>149</v>
-      </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I73" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3591,12 +3525,12 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>223</v>
+      <c r="B74" t="s">
+        <v>208</v>
       </c>
       <c r="C74" t="s">
         <v>23</v>
@@ -3605,16 +3539,16 @@
         <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I74" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3622,12 +3556,12 @@
       </c>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>224</v>
+      <c r="B75" t="s">
+        <v>209</v>
       </c>
       <c r="C75" t="s">
         <v>23</v>
@@ -3636,16 +3570,16 @@
         <v>130</v>
       </c>
       <c r="E75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" t="s">
         <v>132</v>
       </c>
-      <c r="F75" t="s">
-        <v>133</v>
-      </c>
       <c r="G75" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I75" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3653,12 +3587,12 @@
       </c>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>225</v>
+      <c r="B76" t="s">
+        <v>210</v>
       </c>
       <c r="C76" t="s">
         <v>23</v>
@@ -3667,16 +3601,16 @@
         <v>130</v>
       </c>
       <c r="E76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" t="s">
         <v>132</v>
       </c>
-      <c r="F76" t="s">
-        <v>133</v>
-      </c>
       <c r="G76" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I76" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3684,12 +3618,12 @@
       </c>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>226</v>
+      <c r="B77" t="s">
+        <v>211</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -3698,16 +3632,16 @@
         <v>130</v>
       </c>
       <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
         <v>148</v>
       </c>
-      <c r="F77" t="s">
-        <v>149</v>
-      </c>
       <c r="G77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I77" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3715,12 +3649,12 @@
       </c>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>227</v>
+      <c r="B78" t="s">
+        <v>212</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
@@ -3729,16 +3663,16 @@
         <v>130</v>
       </c>
       <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" t="s">
         <v>148</v>
       </c>
-      <c r="F78" t="s">
-        <v>149</v>
-      </c>
       <c r="G78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I78" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3746,12 +3680,12 @@
       </c>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>228</v>
+      <c r="B79" t="s">
+        <v>213</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -3763,13 +3697,13 @@
         <v>18</v>
       </c>
       <c r="F79" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" t="s">
         <v>144</v>
       </c>
-      <c r="G79" t="s">
-        <v>145</v>
-      </c>
       <c r="H79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I79" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3777,12 +3711,12 @@
       </c>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>229</v>
+      <c r="B80" t="s">
+        <v>214</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
@@ -3791,16 +3725,16 @@
         <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I80" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3808,12 +3742,12 @@
       </c>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>230</v>
+      <c r="B81" t="s">
+        <v>215</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
@@ -3822,16 +3756,16 @@
         <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I81" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3839,12 +3773,12 @@
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>231</v>
+      <c r="B82" t="s">
+        <v>216</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -3853,16 +3787,16 @@
         <v>130</v>
       </c>
       <c r="E82" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
         <v>132</v>
       </c>
-      <c r="F82" t="s">
-        <v>133</v>
-      </c>
       <c r="G82" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I82" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3870,12 +3804,12 @@
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>232</v>
+      <c r="B83" t="s">
+        <v>217</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -3887,13 +3821,13 @@
         <v>18</v>
       </c>
       <c r="F83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" t="s">
         <v>144</v>
       </c>
-      <c r="G83" t="s">
-        <v>145</v>
-      </c>
       <c r="H83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I83" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3901,12 +3835,12 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>233</v>
+      <c r="B84" t="s">
+        <v>218</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -3915,16 +3849,16 @@
         <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I84" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3932,12 +3866,12 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>234</v>
+      <c r="B85" t="s">
+        <v>219</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -3946,16 +3880,16 @@
         <v>130</v>
       </c>
       <c r="E85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" t="s">
         <v>132</v>
       </c>
-      <c r="F85" t="s">
-        <v>133</v>
-      </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I85" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3963,12 +3897,12 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>235</v>
+      <c r="B86" t="s">
+        <v>220</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -3977,16 +3911,16 @@
         <v>130</v>
       </c>
       <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" t="s">
         <v>132</v>
       </c>
-      <c r="F86" t="s">
-        <v>133</v>
-      </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I86" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3994,12 +3928,12 @@
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>236</v>
+      <c r="B87" t="s">
+        <v>221</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -4011,13 +3945,13 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" t="s">
         <v>144</v>
       </c>
-      <c r="G87" t="s">
-        <v>145</v>
-      </c>
       <c r="H87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I87" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4025,12 +3959,12 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="14" t="s">
-        <v>237</v>
+      <c r="B88" t="s">
+        <v>222</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -4039,16 +3973,16 @@
         <v>130</v>
       </c>
       <c r="E88" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" t="s">
         <v>148</v>
       </c>
-      <c r="F88" t="s">
-        <v>149</v>
-      </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I88" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4056,12 +3990,12 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>238</v>
+      <c r="B89" t="s">
+        <v>223</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -4070,16 +4004,16 @@
         <v>130</v>
       </c>
       <c r="E89" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" t="s">
         <v>132</v>
       </c>
-      <c r="F89" t="s">
-        <v>133</v>
-      </c>
       <c r="G89" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I89" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4087,12 +4021,12 @@
       </c>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>239</v>
+      <c r="B90" t="s">
+        <v>224</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
@@ -4101,16 +4035,16 @@
         <v>130</v>
       </c>
       <c r="E90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" t="s">
         <v>132</v>
       </c>
-      <c r="F90" t="s">
-        <v>133</v>
-      </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I90" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4118,12 +4052,12 @@
       </c>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>240</v>
+      <c r="B91" t="s">
+        <v>225</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -4132,16 +4066,16 @@
         <v>130</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I91" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4149,12 +4083,12 @@
       </c>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>241</v>
+      <c r="B92" t="s">
+        <v>226</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -4163,16 +4097,16 @@
         <v>130</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I92" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4180,12 +4114,12 @@
       </c>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>242</v>
+      <c r="B93" t="s">
+        <v>227</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
@@ -4194,16 +4128,16 @@
         <v>130</v>
       </c>
       <c r="E93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I93" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4211,12 +4145,12 @@
       </c>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>243</v>
+      <c r="B94" t="s">
+        <v>228</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
@@ -4225,16 +4159,16 @@
         <v>130</v>
       </c>
       <c r="E94" t="s">
+        <v>131</v>
+      </c>
+      <c r="F94" t="s">
         <v>132</v>
       </c>
-      <c r="F94" t="s">
-        <v>133</v>
-      </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I94" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4242,12 +4176,12 @@
       </c>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>244</v>
+      <c r="B95" t="s">
+        <v>229</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -4256,16 +4190,16 @@
         <v>130</v>
       </c>
       <c r="E95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" t="s">
         <v>132</v>
       </c>
-      <c r="F95" t="s">
-        <v>133</v>
-      </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I95" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4273,12 +4207,12 @@
       </c>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>245</v>
+      <c r="B96" t="s">
+        <v>230</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -4287,16 +4221,16 @@
         <v>130</v>
       </c>
       <c r="E96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" t="s">
         <v>148</v>
       </c>
-      <c r="F96" t="s">
-        <v>149</v>
-      </c>
       <c r="G96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I96" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4304,12 +4238,12 @@
       </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>246</v>
+      <c r="B97" t="s">
+        <v>231</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -4321,13 +4255,13 @@
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I97" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4335,12 +4269,12 @@
       </c>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>247</v>
+      <c r="B98" t="s">
+        <v>232</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -4352,13 +4286,13 @@
         <v>22</v>
       </c>
       <c r="F98" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" t="s">
         <v>150</v>
       </c>
-      <c r="G98" t="s">
-        <v>151</v>
-      </c>
       <c r="H98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I98" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4366,12 +4300,12 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>248</v>
+      <c r="B99" t="s">
+        <v>233</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -4380,16 +4314,16 @@
         <v>130</v>
       </c>
       <c r="E99" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" t="s">
         <v>132</v>
       </c>
-      <c r="F99" t="s">
-        <v>133</v>
-      </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I99" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4397,12 +4331,12 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>249</v>
+      <c r="B100" t="s">
+        <v>234</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -4411,16 +4345,16 @@
         <v>130</v>
       </c>
       <c r="E100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I100" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4428,12 +4362,12 @@
       </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>235</v>
+      <c r="B101" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -4442,16 +4376,16 @@
         <v>130</v>
       </c>
       <c r="E101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" t="s">
         <v>132</v>
       </c>
-      <c r="F101" t="s">
-        <v>133</v>
-      </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I101" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4459,12 +4393,12 @@
       </c>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>250</v>
+      <c r="B102" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
@@ -4473,16 +4407,16 @@
         <v>130</v>
       </c>
       <c r="E102" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" t="s">
         <v>132</v>
       </c>
-      <c r="F102" t="s">
-        <v>133</v>
-      </c>
       <c r="G102" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I102" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4490,12 +4424,12 @@
       </c>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>251</v>
+      <c r="B103" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -4504,16 +4438,16 @@
         <v>130</v>
       </c>
       <c r="E103" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" t="s">
         <v>132</v>
       </c>
-      <c r="F103" t="s">
-        <v>133</v>
-      </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I103" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4521,12 +4455,12 @@
       </c>
       <c r="J103" s="10"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B104" s="14" t="s">
-        <v>252</v>
+      <c r="B104" t="s">
+        <v>237</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -4535,16 +4469,16 @@
         <v>128</v>
       </c>
       <c r="E104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" t="s">
         <v>142</v>
       </c>
-      <c r="F104" t="s">
-        <v>143</v>
-      </c>
       <c r="G104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I104" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4552,12 +4486,12 @@
       </c>
       <c r="J104" s="10"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>253</v>
+      <c r="B105" t="s">
+        <v>238</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
@@ -4566,16 +4500,16 @@
         <v>130</v>
       </c>
       <c r="E105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I105" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4583,12 +4517,12 @@
       </c>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>254</v>
+      <c r="B106" t="s">
+        <v>239</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -4597,16 +4531,16 @@
         <v>130</v>
       </c>
       <c r="E106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I106" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4614,12 +4548,12 @@
       </c>
       <c r="J106" s="10"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>211</v>
+      <c r="B107" t="s">
+        <v>196</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
@@ -4628,28 +4562,28 @@
         <v>130</v>
       </c>
       <c r="E107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" t="s">
         <v>148</v>
       </c>
-      <c r="F107" t="s">
-        <v>149</v>
-      </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I107" s="12" t="str">
         <f t="shared" si="1"/>
         <v>21/05/2004</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>255</v>
+        <v>152</v>
+      </c>
+      <c r="B108" t="s">
+        <v>240</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
@@ -4661,25 +4595,25 @@
         <v>22</v>
       </c>
       <c r="F108" t="s">
+        <v>149</v>
+      </c>
+      <c r="G108" t="s">
         <v>150</v>
       </c>
-      <c r="G108" t="s">
-        <v>151</v>
-      </c>
       <c r="H108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I108" s="12" t="str">
         <f t="shared" si="1"/>
         <v>17/06/2013</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>256</v>
+        <v>151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>241</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -4691,21 +4625,82 @@
         <v>22</v>
       </c>
       <c r="F109" t="s">
+        <v>149</v>
+      </c>
+      <c r="G109" t="s">
         <v>150</v>
       </c>
-      <c r="G109" t="s">
-        <v>151</v>
-      </c>
       <c r="H109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I109" s="12" t="str">
         <f t="shared" si="1"/>
         <v>13/03/2013</v>
       </c>
     </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" s="14">
+        <v>42808</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" t="s">
+        <v>133</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" t="s">
+        <v>153</v>
+      </c>
+      <c r="I110" s="12" t="str">
+        <f t="shared" ref="I110:I111" si="2">TEXT(B110,"DD/MM/AAAA")</f>
+        <v>14/03/2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="17">
+        <v>41184</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" t="s">
+        <v>131</v>
+      </c>
+      <c r="F111" t="s">
+        <v>132</v>
+      </c>
+      <c r="G111" t="s">
+        <v>244</v>
+      </c>
+      <c r="H111" t="s">
+        <v>153</v>
+      </c>
+      <c r="I111" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>02/10/2012</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4719,12 +4714,12 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -4735,7 +4730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -4751,7 +4746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -4759,9 +4754,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
